--- a/outputs-HGR-r202/train-g__Bifidobacterium_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-g__Bifidobacterium_split_pruned.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="319">
   <si>
     <t>Row</t>
   </si>
@@ -794,6 +795,186 @@
   </si>
   <si>
     <t>label_UMGS1405_85.fasta</t>
+  </si>
+  <si>
+    <t>label_18391_1_7_7.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_001025155_0.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_3_2_4.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_3_2_8.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_001025195_0.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000172135_0.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000741205_0.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000741205_2.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000741205_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS74_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS74_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS74_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS74_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS74_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS74_7.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_1_93_0.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_1_93_2.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_1_93_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1527_104.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1527_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1527_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1527_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1527_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1527_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1527_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1527_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1527_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1527_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1527_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1527_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1527_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1527_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1527_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1527_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1527_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1527_95.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1527_98.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS603_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS603_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS603_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS603_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1405_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1405_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1405_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1405_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1405_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1405_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1405_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1405_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1405_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1405_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1405_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1405_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1405_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1405_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1405_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1405_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1405_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1405_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1405_86.fasta</t>
   </si>
 </sst>
 </file>
@@ -814,7 +995,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -830,11 +1011,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -844,6 +1027,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13999,4 +14184,3265 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q61"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="true"/>
+    <col min="2" max="2" width="29.85546875" customWidth="true"/>
+    <col min="3" max="3" width="28.140625" customWidth="true"/>
+    <col min="4" max="4" width="26.140625" customWidth="true"/>
+    <col min="5" max="5" width="25.7109375" customWidth="true"/>
+    <col min="6" max="6" width="23.85546875" customWidth="true"/>
+    <col min="7" max="7" width="29.85546875" customWidth="true"/>
+    <col min="8" max="8" width="26.28515625" customWidth="true"/>
+    <col min="9" max="9" width="26.140625" customWidth="true"/>
+    <col min="10" max="10" width="28.140625" customWidth="true"/>
+    <col min="11" max="11" width="25.42578125" customWidth="true"/>
+    <col min="12" max="12" width="36.42578125" customWidth="true"/>
+    <col min="13" max="13" width="26.85546875" customWidth="true"/>
+    <col min="14" max="14" width="29.7109375" customWidth="true"/>
+    <col min="15" max="15" width="29.7109375" customWidth="true"/>
+    <col min="16" max="16" width="10.28515625" customWidth="true"/>
+    <col min="17" max="17" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2">
+        <v>0.025045591686339717</v>
+      </c>
+      <c r="C2">
+        <v>0.0083122628892884718</v>
+      </c>
+      <c r="D2">
+        <v>0.0089454747194573966</v>
+      </c>
+      <c r="E2">
+        <v>0.15392527389693605</v>
+      </c>
+      <c r="F2">
+        <v>0.15392527389693605</v>
+      </c>
+      <c r="G2">
+        <v>0.0083122628892884666</v>
+      </c>
+      <c r="H2">
+        <v>0.15392527389693605</v>
+      </c>
+      <c r="I2">
+        <v>0.063098087823323309</v>
+      </c>
+      <c r="J2">
+        <v>0.16620747324482976</v>
+      </c>
+      <c r="K2">
+        <v>0.15392527389693605</v>
+      </c>
+      <c r="L2">
+        <v>0.01400485315102745</v>
+      </c>
+      <c r="M2">
+        <v>0.0083131308917081693</v>
+      </c>
+      <c r="N2">
+        <v>0.073747504225950472</v>
+      </c>
+      <c r="O2">
+        <v>0.0083122628910424802</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3">
+        <v>0.065150098817202393</v>
+      </c>
+      <c r="C3">
+        <v>0.0089191026787747724</v>
+      </c>
+      <c r="D3">
+        <v>0.022372690685614607</v>
+      </c>
+      <c r="E3">
+        <v>0.191700098808117</v>
+      </c>
+      <c r="F3">
+        <v>0.191700098808117</v>
+      </c>
+      <c r="G3">
+        <v>0.0089191026787747603</v>
+      </c>
+      <c r="H3">
+        <v>0.191700098808117</v>
+      </c>
+      <c r="I3">
+        <v>0.0099224151943172068</v>
+      </c>
+      <c r="J3">
+        <v>0.016580965669508122</v>
+      </c>
+      <c r="K3">
+        <v>0.191700098808117</v>
+      </c>
+      <c r="L3">
+        <v>0.013228880653043638</v>
+      </c>
+      <c r="M3">
+        <v>0.010041832067046145</v>
+      </c>
+      <c r="N3">
+        <v>0.069145413644475448</v>
+      </c>
+      <c r="O3">
+        <v>0.0089191026787747846</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4">
+        <v>0.007996404433157734</v>
+      </c>
+      <c r="C4">
+        <v>2.2207691880543695e-14</v>
+      </c>
+      <c r="D4">
+        <v>0.96785298168906131</v>
+      </c>
+      <c r="E4">
+        <v>2.2207691880543695e-14</v>
+      </c>
+      <c r="F4">
+        <v>2.2207691880543695e-14</v>
+      </c>
+      <c r="G4">
+        <v>2.2207691880543695e-14</v>
+      </c>
+      <c r="H4">
+        <v>2.2207691880543695e-14</v>
+      </c>
+      <c r="I4">
+        <v>0.0048412401665465336</v>
+      </c>
+      <c r="J4">
+        <v>0.0012142985239461583</v>
+      </c>
+      <c r="K4">
+        <v>2.2207691880543695e-14</v>
+      </c>
+      <c r="L4">
+        <v>0.0037699218051231707</v>
+      </c>
+      <c r="M4">
+        <v>0.0053881573744105791</v>
+      </c>
+      <c r="N4">
+        <v>0.008935866203103951</v>
+      </c>
+      <c r="O4">
+        <v>1.1298045172377119e-06</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5">
+        <v>0.015918192561234921</v>
+      </c>
+      <c r="C5">
+        <v>2.2503475906590464e-14</v>
+      </c>
+      <c r="D5">
+        <v>0.26199091205543146</v>
+      </c>
+      <c r="E5">
+        <v>2.2503475906590464e-14</v>
+      </c>
+      <c r="F5">
+        <v>2.2503475906590464e-14</v>
+      </c>
+      <c r="G5">
+        <v>2.2503475906590464e-14</v>
+      </c>
+      <c r="H5">
+        <v>2.2503475906590464e-14</v>
+      </c>
+      <c r="I5">
+        <v>0.0030365278566769822</v>
+      </c>
+      <c r="J5">
+        <v>0.00019201611411883804</v>
+      </c>
+      <c r="K5">
+        <v>2.2503475906590464e-14</v>
+      </c>
+      <c r="L5">
+        <v>0.002794249147607954</v>
+      </c>
+      <c r="M5">
+        <v>0.0642325550844179</v>
+      </c>
+      <c r="N5">
+        <v>0.00064354932882912353</v>
+      </c>
+      <c r="O5">
+        <v>0.65119199785154791</v>
+      </c>
+      <c r="P5">
+        <v>14</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6">
+        <v>0.043059226647123576</v>
+      </c>
+      <c r="C6">
+        <v>3.2273542039898506e-14</v>
+      </c>
+      <c r="D6">
+        <v>0.0010525188824274162</v>
+      </c>
+      <c r="E6">
+        <v>3.1322194204663804e-14</v>
+      </c>
+      <c r="F6">
+        <v>3.1322194204663804e-14</v>
+      </c>
+      <c r="G6">
+        <v>3.2273542039898518e-14</v>
+      </c>
+      <c r="H6">
+        <v>3.1322194204663804e-14</v>
+      </c>
+      <c r="I6">
+        <v>0.0015995849003028397</v>
+      </c>
+      <c r="J6">
+        <v>0.00077706360766486692</v>
+      </c>
+      <c r="K6">
+        <v>3.1322194204663804e-14</v>
+      </c>
+      <c r="L6">
+        <v>0.0065788604180816654</v>
+      </c>
+      <c r="M6">
+        <v>0.0047535171648995372</v>
+      </c>
+      <c r="N6">
+        <v>0.94217922837896295</v>
+      </c>
+      <c r="O6">
+        <v>3.473847198527573e-13</v>
+      </c>
+      <c r="P6">
+        <v>13</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7">
+        <v>0.19589468424512799</v>
+      </c>
+      <c r="C7">
+        <v>0.0086859962458749138</v>
+      </c>
+      <c r="D7">
+        <v>0.011794216483287987</v>
+      </c>
+      <c r="E7">
+        <v>0.15594479849518109</v>
+      </c>
+      <c r="F7">
+        <v>0.15594479849518109</v>
+      </c>
+      <c r="G7">
+        <v>0.0086859962458749208</v>
+      </c>
+      <c r="H7">
+        <v>0.15594479849518109</v>
+      </c>
+      <c r="I7">
+        <v>0.0089938315972237295</v>
+      </c>
+      <c r="J7">
+        <v>0.016248940028122411</v>
+      </c>
+      <c r="K7">
+        <v>0.15594479849518109</v>
+      </c>
+      <c r="L7">
+        <v>0.012958749178690524</v>
+      </c>
+      <c r="M7">
+        <v>0.010834557081283251</v>
+      </c>
+      <c r="N7">
+        <v>0.093437838667915066</v>
+      </c>
+      <c r="O7">
+        <v>0.0086859962458749277</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8">
+        <v>0.0022207545907799984</v>
+      </c>
+      <c r="C8">
+        <v>2.2209354926295896e-14</v>
+      </c>
+      <c r="D8">
+        <v>0.0040614294919051937</v>
+      </c>
+      <c r="E8">
+        <v>2.2209354926295896e-14</v>
+      </c>
+      <c r="F8">
+        <v>2.2209354926295896e-14</v>
+      </c>
+      <c r="G8">
+        <v>2.2209354926295896e-14</v>
+      </c>
+      <c r="H8">
+        <v>2.2209354926295896e-14</v>
+      </c>
+      <c r="I8">
+        <v>0.95168482426281065</v>
+      </c>
+      <c r="J8">
+        <v>0.0011825970449794269</v>
+      </c>
+      <c r="K8">
+        <v>2.2209354926295896e-14</v>
+      </c>
+      <c r="L8">
+        <v>0.0033387327081747255</v>
+      </c>
+      <c r="M8">
+        <v>0.0072089853705224836</v>
+      </c>
+      <c r="N8">
+        <v>0.030302676490697733</v>
+      </c>
+      <c r="O8">
+        <v>3.9996461319415293e-11</v>
+      </c>
+      <c r="P8">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9">
+        <v>0.0032010053823525388</v>
+      </c>
+      <c r="C9">
+        <v>2.2208727321490057e-14</v>
+      </c>
+      <c r="D9">
+        <v>0.0025197454159367797</v>
+      </c>
+      <c r="E9">
+        <v>2.2208727321490057e-14</v>
+      </c>
+      <c r="F9">
+        <v>2.2208727321490057e-14</v>
+      </c>
+      <c r="G9">
+        <v>2.2208727321490057e-14</v>
+      </c>
+      <c r="H9">
+        <v>2.2208727321490057e-14</v>
+      </c>
+      <c r="I9">
+        <v>0.96456597466041849</v>
+      </c>
+      <c r="J9">
+        <v>0.0030162636335894721</v>
+      </c>
+      <c r="K9">
+        <v>2.2208727321490057e-14</v>
+      </c>
+      <c r="L9">
+        <v>0.0038038490202060371</v>
+      </c>
+      <c r="M9">
+        <v>0.0079562885606713277</v>
+      </c>
+      <c r="N9">
+        <v>0.014936873325621587</v>
+      </c>
+      <c r="O9">
+        <v>1.0705286025425528e-12</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10">
+        <v>0.0026043227837462485</v>
+      </c>
+      <c r="C10">
+        <v>2.2210166168290508e-14</v>
+      </c>
+      <c r="D10">
+        <v>0.00077309036358450261</v>
+      </c>
+      <c r="E10">
+        <v>2.2210166168290508e-14</v>
+      </c>
+      <c r="F10">
+        <v>2.2210166168290508e-14</v>
+      </c>
+      <c r="G10">
+        <v>2.2210166168290508e-14</v>
+      </c>
+      <c r="H10">
+        <v>2.2210166168290508e-14</v>
+      </c>
+      <c r="I10">
+        <v>0.94454263284203988</v>
+      </c>
+      <c r="J10">
+        <v>0.0030447580102740141</v>
+      </c>
+      <c r="K10">
+        <v>2.2210166168290508e-14</v>
+      </c>
+      <c r="L10">
+        <v>0.0032705340031966572</v>
+      </c>
+      <c r="M10">
+        <v>0.0093439765955458994</v>
+      </c>
+      <c r="N10">
+        <v>0.036420685401381589</v>
+      </c>
+      <c r="O10">
+        <v>9.7909834247983677e-14</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11">
+        <v>0.02161142308066764</v>
+      </c>
+      <c r="C11">
+        <v>0.0077639831649721673</v>
+      </c>
+      <c r="D11">
+        <v>0.0078419527131524652</v>
+      </c>
+      <c r="E11">
+        <v>0.084590685556867204</v>
+      </c>
+      <c r="F11">
+        <v>0.084590685556867204</v>
+      </c>
+      <c r="G11">
+        <v>0.0077639831649721621</v>
+      </c>
+      <c r="H11">
+        <v>0.084590685556867204</v>
+      </c>
+      <c r="I11">
+        <v>0.0092295899406533936</v>
+      </c>
+      <c r="J11">
+        <v>0.43470014486629582</v>
+      </c>
+      <c r="K11">
+        <v>0.084590685556867204</v>
+      </c>
+      <c r="L11">
+        <v>0.014906514888626064</v>
+      </c>
+      <c r="M11">
+        <v>0.14228870879470334</v>
+      </c>
+      <c r="N11">
+        <v>0.0077669739935158997</v>
+      </c>
+      <c r="O11">
+        <v>0.0077639831649721673</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12">
+        <v>0.0060625265756255424</v>
+      </c>
+      <c r="C12">
+        <v>3.4285922169840794e-14</v>
+      </c>
+      <c r="D12">
+        <v>3.2349511295530367e-05</v>
+      </c>
+      <c r="E12">
+        <v>3.3229675410786344e-14</v>
+      </c>
+      <c r="F12">
+        <v>3.3229675410786344e-14</v>
+      </c>
+      <c r="G12">
+        <v>3.4285922169840781e-14</v>
+      </c>
+      <c r="H12">
+        <v>3.3229675410786344e-14</v>
+      </c>
+      <c r="I12">
+        <v>0.0012389052772948258</v>
+      </c>
+      <c r="J12">
+        <v>0.35382499428306463</v>
+      </c>
+      <c r="K12">
+        <v>3.3229675410786344e-14</v>
+      </c>
+      <c r="L12">
+        <v>0.015376422626545306</v>
+      </c>
+      <c r="M12">
+        <v>0.62346052926550588</v>
+      </c>
+      <c r="N12">
+        <v>4.2724604322877699e-06</v>
+      </c>
+      <c r="O12">
+        <v>3.4285922169840781e-14</v>
+      </c>
+      <c r="P12">
+        <v>12</v>
+      </c>
+      <c r="Q12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13">
+        <v>0.002623050252429883</v>
+      </c>
+      <c r="C13">
+        <v>2.2205759924151422e-14</v>
+      </c>
+      <c r="D13">
+        <v>3.1919345054765689e-05</v>
+      </c>
+      <c r="E13">
+        <v>2.2205759924151422e-14</v>
+      </c>
+      <c r="F13">
+        <v>2.2205759924151422e-14</v>
+      </c>
+      <c r="G13">
+        <v>2.2205759924151422e-14</v>
+      </c>
+      <c r="H13">
+        <v>2.2205759924151422e-14</v>
+      </c>
+      <c r="I13">
+        <v>0.0005612784667256654</v>
+      </c>
+      <c r="J13">
+        <v>0.38436863612001781</v>
+      </c>
+      <c r="K13">
+        <v>2.2205759924151422e-14</v>
+      </c>
+      <c r="L13">
+        <v>0.0096481546868831657</v>
+      </c>
+      <c r="M13">
+        <v>0.60276398231112549</v>
+      </c>
+      <c r="N13">
+        <v>2.9788176077028952e-06</v>
+      </c>
+      <c r="O13">
+        <v>2.2205759924151422e-14</v>
+      </c>
+      <c r="P13">
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14">
+        <v>0.017221953483943737</v>
+      </c>
+      <c r="C14">
+        <v>2.2209149572078185e-14</v>
+      </c>
+      <c r="D14">
+        <v>0.0016970737251152514</v>
+      </c>
+      <c r="E14">
+        <v>2.2209149572078185e-14</v>
+      </c>
+      <c r="F14">
+        <v>2.2209149572078185e-14</v>
+      </c>
+      <c r="G14">
+        <v>2.2209149572078185e-14</v>
+      </c>
+      <c r="H14">
+        <v>2.2209149572078185e-14</v>
+      </c>
+      <c r="I14">
+        <v>0.0045251445872500021</v>
+      </c>
+      <c r="J14">
+        <v>0.0043838057178945391</v>
+      </c>
+      <c r="K14">
+        <v>2.2209149572078185e-14</v>
+      </c>
+      <c r="L14">
+        <v>0.0046111048241605649</v>
+      </c>
+      <c r="M14">
+        <v>0.95844373893310197</v>
+      </c>
+      <c r="N14">
+        <v>0.0091171686806252351</v>
+      </c>
+      <c r="O14">
+        <v>1.0047775414947418e-08</v>
+      </c>
+      <c r="P14">
+        <v>12</v>
+      </c>
+      <c r="Q14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15">
+        <v>0.022262967572967328</v>
+      </c>
+      <c r="C15">
+        <v>2.2214761504919474e-14</v>
+      </c>
+      <c r="D15">
+        <v>0.00064055747349076617</v>
+      </c>
+      <c r="E15">
+        <v>2.2214761504919474e-14</v>
+      </c>
+      <c r="F15">
+        <v>2.2214761504919474e-14</v>
+      </c>
+      <c r="G15">
+        <v>2.2214761504919474e-14</v>
+      </c>
+      <c r="H15">
+        <v>2.2214761504919474e-14</v>
+      </c>
+      <c r="I15">
+        <v>0.0056588490997475432</v>
+      </c>
+      <c r="J15">
+        <v>0.056485923171918542</v>
+      </c>
+      <c r="K15">
+        <v>2.2214761504919474e-14</v>
+      </c>
+      <c r="L15">
+        <v>0.005991576601126117</v>
+      </c>
+      <c r="M15">
+        <v>0.90587709347965772</v>
+      </c>
+      <c r="N15">
+        <v>0.0030830325949083894</v>
+      </c>
+      <c r="O15">
+        <v>6.0501725525902019e-12</v>
+      </c>
+      <c r="P15">
+        <v>12</v>
+      </c>
+      <c r="Q15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16">
+        <v>0.01488060668950965</v>
+      </c>
+      <c r="C16">
+        <v>3.873436454884485e-14</v>
+      </c>
+      <c r="D16">
+        <v>0.00010336144124115916</v>
+      </c>
+      <c r="E16">
+        <v>3.7063055729950137e-14</v>
+      </c>
+      <c r="F16">
+        <v>3.7063055729950137e-14</v>
+      </c>
+      <c r="G16">
+        <v>3.873436454884485e-14</v>
+      </c>
+      <c r="H16">
+        <v>3.7063055729950137e-14</v>
+      </c>
+      <c r="I16">
+        <v>0.0015597981848815775</v>
+      </c>
+      <c r="J16">
+        <v>0.91026934829160711</v>
+      </c>
+      <c r="K16">
+        <v>3.7063055729950137e-14</v>
+      </c>
+      <c r="L16">
+        <v>0.015826295364600527</v>
+      </c>
+      <c r="M16">
+        <v>0.057358318149730067</v>
+      </c>
+      <c r="N16">
+        <v>2.2718781653131876e-06</v>
+      </c>
+      <c r="O16">
+        <v>3.8734364548845292e-14</v>
+      </c>
+      <c r="P16">
+        <v>9</v>
+      </c>
+      <c r="Q16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17">
+        <v>0.041753068351950064</v>
+      </c>
+      <c r="C17">
+        <v>2.5138088846404968e-14</v>
+      </c>
+      <c r="D17">
+        <v>0.00095447123063073036</v>
+      </c>
+      <c r="E17">
+        <v>2.4898995034134375e-14</v>
+      </c>
+      <c r="F17">
+        <v>2.4898995034134375e-14</v>
+      </c>
+      <c r="G17">
+        <v>2.5138088846404983e-14</v>
+      </c>
+      <c r="H17">
+        <v>2.4898995034134375e-14</v>
+      </c>
+      <c r="I17">
+        <v>0.0012025702400378711</v>
+      </c>
+      <c r="J17">
+        <v>0.00051616473454180786</v>
+      </c>
+      <c r="K17">
+        <v>2.4898995034134375e-14</v>
+      </c>
+      <c r="L17">
+        <v>0.0050763459259785685</v>
+      </c>
+      <c r="M17">
+        <v>0.0036978720917445465</v>
+      </c>
+      <c r="N17">
+        <v>0.9467995074240112</v>
+      </c>
+      <c r="O17">
+        <v>9.5533070652323833e-13</v>
+      </c>
+      <c r="P17">
+        <v>13</v>
+      </c>
+      <c r="Q17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B18">
+        <v>0.071081860509497413</v>
+      </c>
+      <c r="C18">
+        <v>3.3424608264259165e-14</v>
+      </c>
+      <c r="D18">
+        <v>0.0011968110917078909</v>
+      </c>
+      <c r="E18">
+        <v>3.2353345211640892e-14</v>
+      </c>
+      <c r="F18">
+        <v>3.2353345211640892e-14</v>
+      </c>
+      <c r="G18">
+        <v>3.3424608264259159e-14</v>
+      </c>
+      <c r="H18">
+        <v>3.2353345211640892e-14</v>
+      </c>
+      <c r="I18">
+        <v>0.0017950648536242844</v>
+      </c>
+      <c r="J18">
+        <v>0.00053978567533088863</v>
+      </c>
+      <c r="K18">
+        <v>3.2353345211640892e-14</v>
+      </c>
+      <c r="L18">
+        <v>0.0067624025666426823</v>
+      </c>
+      <c r="M18">
+        <v>0.015196540040232798</v>
+      </c>
+      <c r="N18">
+        <v>0.90342753492821515</v>
+      </c>
+      <c r="O18">
+        <v>3.3455254635786739e-10</v>
+      </c>
+      <c r="P18">
+        <v>13</v>
+      </c>
+      <c r="Q18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19">
+        <v>0.070279565215112055</v>
+      </c>
+      <c r="C19">
+        <v>0.0054190062180238217</v>
+      </c>
+      <c r="D19">
+        <v>0.0065660268483933616</v>
+      </c>
+      <c r="E19">
+        <v>0.02982113139125319</v>
+      </c>
+      <c r="F19">
+        <v>0.02982113139125319</v>
+      </c>
+      <c r="G19">
+        <v>0.0054190062180238044</v>
+      </c>
+      <c r="H19">
+        <v>0.02982113139125319</v>
+      </c>
+      <c r="I19">
+        <v>0.0062625341438768333</v>
+      </c>
+      <c r="J19">
+        <v>0.0062128183428683294</v>
+      </c>
+      <c r="K19">
+        <v>0.02982113139125319</v>
+      </c>
+      <c r="L19">
+        <v>0.0095923267378532837</v>
+      </c>
+      <c r="M19">
+        <v>0.023786028713886527</v>
+      </c>
+      <c r="N19">
+        <v>0.74175915564955741</v>
+      </c>
+      <c r="O19">
+        <v>0.0054190063473916949</v>
+      </c>
+      <c r="P19">
+        <v>13</v>
+      </c>
+      <c r="Q19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B20">
+        <v>2.6211028857162582e-06</v>
+      </c>
+      <c r="C20">
+        <v>2.22021272660568e-14</v>
+      </c>
+      <c r="D20">
+        <v>5.0962029868713191e-06</v>
+      </c>
+      <c r="E20">
+        <v>2.22021272660568e-14</v>
+      </c>
+      <c r="F20">
+        <v>2.22021272660568e-14</v>
+      </c>
+      <c r="G20">
+        <v>2.22021272660568e-14</v>
+      </c>
+      <c r="H20">
+        <v>2.22021272660568e-14</v>
+      </c>
+      <c r="I20">
+        <v>0.00016261455976550418</v>
+      </c>
+      <c r="J20">
+        <v>3.7078622774880887e-06</v>
+      </c>
+      <c r="K20">
+        <v>2.22021272660568e-14</v>
+      </c>
+      <c r="L20">
+        <v>0.0023207069058528026</v>
+      </c>
+      <c r="M20">
+        <v>0.9926592445321103</v>
+      </c>
+      <c r="N20">
+        <v>0.0048416745684611226</v>
+      </c>
+      <c r="O20">
+        <v>4.3342655268886848e-06</v>
+      </c>
+      <c r="P20">
+        <v>12</v>
+      </c>
+      <c r="Q20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B21">
+        <v>0.025310543804204499</v>
+      </c>
+      <c r="C21">
+        <v>3.3323192332533015e-14</v>
+      </c>
+      <c r="D21">
+        <v>0.0002756234481640642</v>
+      </c>
+      <c r="E21">
+        <v>3.2358304532089593e-14</v>
+      </c>
+      <c r="F21">
+        <v>3.2358304532089593e-14</v>
+      </c>
+      <c r="G21">
+        <v>3.3323192332533021e-14</v>
+      </c>
+      <c r="H21">
+        <v>3.2358304532089593e-14</v>
+      </c>
+      <c r="I21">
+        <v>0.0024049961029825053</v>
+      </c>
+      <c r="J21">
+        <v>0.29130117198541927</v>
+      </c>
+      <c r="K21">
+        <v>3.2358304532089593e-14</v>
+      </c>
+      <c r="L21">
+        <v>0.013271297733774301</v>
+      </c>
+      <c r="M21">
+        <v>0.66738842317571134</v>
+      </c>
+      <c r="N21">
+        <v>4.7943749514676769e-05</v>
+      </c>
+      <c r="O21">
+        <v>3.332319233253292e-14</v>
+      </c>
+      <c r="P21">
+        <v>12</v>
+      </c>
+      <c r="Q21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22">
+        <v>0.030858969631406327</v>
+      </c>
+      <c r="C22">
+        <v>2.2211774872076419e-14</v>
+      </c>
+      <c r="D22">
+        <v>0.0016102075148001686</v>
+      </c>
+      <c r="E22">
+        <v>2.2211774872076419e-14</v>
+      </c>
+      <c r="F22">
+        <v>2.2211774872076419e-14</v>
+      </c>
+      <c r="G22">
+        <v>2.2211774872076419e-14</v>
+      </c>
+      <c r="H22">
+        <v>2.2211774872076419e-14</v>
+      </c>
+      <c r="I22">
+        <v>0.0031839839626670412</v>
+      </c>
+      <c r="J22">
+        <v>0.041678578269568778</v>
+      </c>
+      <c r="K22">
+        <v>2.2211774872076419e-14</v>
+      </c>
+      <c r="L22">
+        <v>0.0060869356730376091</v>
+      </c>
+      <c r="M22">
+        <v>0.91336645161303442</v>
+      </c>
+      <c r="N22">
+        <v>0.0032148732923329235</v>
+      </c>
+      <c r="O22">
+        <v>4.3019533261938695e-11</v>
+      </c>
+      <c r="P22">
+        <v>12</v>
+      </c>
+      <c r="Q22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23">
+        <v>0.012513261521502115</v>
+      </c>
+      <c r="C23">
+        <v>2.2207602864604338e-14</v>
+      </c>
+      <c r="D23">
+        <v>0.00087910477921525397</v>
+      </c>
+      <c r="E23">
+        <v>2.2207602864604338e-14</v>
+      </c>
+      <c r="F23">
+        <v>2.2207602864604338e-14</v>
+      </c>
+      <c r="G23">
+        <v>2.2207602864604338e-14</v>
+      </c>
+      <c r="H23">
+        <v>2.2207602864604338e-14</v>
+      </c>
+      <c r="I23">
+        <v>0.0040193494270056862</v>
+      </c>
+      <c r="J23">
+        <v>0.020063576343755597</v>
+      </c>
+      <c r="K23">
+        <v>2.2207602864604338e-14</v>
+      </c>
+      <c r="L23">
+        <v>0.0055925527782391292</v>
+      </c>
+      <c r="M23">
+        <v>0.9556202756225487</v>
+      </c>
+      <c r="N23">
+        <v>0.0013118794482885161</v>
+      </c>
+      <c r="O23">
+        <v>7.9311803186044974e-11</v>
+      </c>
+      <c r="P23">
+        <v>12</v>
+      </c>
+      <c r="Q23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24">
+        <v>0.0043054678846142658</v>
+      </c>
+      <c r="C24">
+        <v>2.2204828525099905e-14</v>
+      </c>
+      <c r="D24">
+        <v>0.00071158205372532236</v>
+      </c>
+      <c r="E24">
+        <v>2.2204828525099905e-14</v>
+      </c>
+      <c r="F24">
+        <v>2.2204828525099905e-14</v>
+      </c>
+      <c r="G24">
+        <v>2.2204828525099905e-14</v>
+      </c>
+      <c r="H24">
+        <v>2.2204828525099905e-14</v>
+      </c>
+      <c r="I24">
+        <v>0.0021201375795929242</v>
+      </c>
+      <c r="J24">
+        <v>0.00077222157411105396</v>
+      </c>
+      <c r="K24">
+        <v>2.2204828525099905e-14</v>
+      </c>
+      <c r="L24">
+        <v>0.003975448623253503</v>
+      </c>
+      <c r="M24">
+        <v>0.98354994302510201</v>
+      </c>
+      <c r="N24">
+        <v>0.0045651851219389488</v>
+      </c>
+      <c r="O24">
+        <v>1.4137528738588102e-08</v>
+      </c>
+      <c r="P24">
+        <v>12</v>
+      </c>
+      <c r="Q24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B25">
+        <v>0.0016785100011840648</v>
+      </c>
+      <c r="C25">
+        <v>2.2201840417703878e-14</v>
+      </c>
+      <c r="D25">
+        <v>2.8294442145509154e-05</v>
+      </c>
+      <c r="E25">
+        <v>2.2201840417703878e-14</v>
+      </c>
+      <c r="F25">
+        <v>2.2201840417703878e-14</v>
+      </c>
+      <c r="G25">
+        <v>2.2201840417703878e-14</v>
+      </c>
+      <c r="H25">
+        <v>2.2201840417703878e-14</v>
+      </c>
+      <c r="I25">
+        <v>0.00045385298854920894</v>
+      </c>
+      <c r="J25">
+        <v>0.094709323135058268</v>
+      </c>
+      <c r="K25">
+        <v>2.2201840417703878e-14</v>
+      </c>
+      <c r="L25">
+        <v>0.0064998213648922816</v>
+      </c>
+      <c r="M25">
+        <v>0.89662471746903127</v>
+      </c>
+      <c r="N25">
+        <v>5.4805989839262965e-06</v>
+      </c>
+      <c r="O25">
+        <v>2.2201840417703878e-14</v>
+      </c>
+      <c r="P25">
+        <v>12</v>
+      </c>
+      <c r="Q25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B26">
+        <v>0.0012431334775624919</v>
+      </c>
+      <c r="C26">
+        <v>2.2202968175939671e-14</v>
+      </c>
+      <c r="D26">
+        <v>0.00038111849565277642</v>
+      </c>
+      <c r="E26">
+        <v>2.2202968175939671e-14</v>
+      </c>
+      <c r="F26">
+        <v>2.2202968175939671e-14</v>
+      </c>
+      <c r="G26">
+        <v>2.2202968175939671e-14</v>
+      </c>
+      <c r="H26">
+        <v>2.2202968175939671e-14</v>
+      </c>
+      <c r="I26">
+        <v>0.001043642034151487</v>
+      </c>
+      <c r="J26">
+        <v>0.00080396512328003149</v>
+      </c>
+      <c r="K26">
+        <v>2.2202968175939671e-14</v>
+      </c>
+      <c r="L26">
+        <v>0.0051750407095040914</v>
+      </c>
+      <c r="M26">
+        <v>0.99029073572371262</v>
+      </c>
+      <c r="N26">
+        <v>0.0010623640970505764</v>
+      </c>
+      <c r="O26">
+        <v>3.3895264247881331e-10</v>
+      </c>
+      <c r="P26">
+        <v>12</v>
+      </c>
+      <c r="Q26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B27">
+        <v>0.0015869644327523946</v>
+      </c>
+      <c r="C27">
+        <v>2.2203406158428329e-14</v>
+      </c>
+      <c r="D27">
+        <v>0.00028591058897372938</v>
+      </c>
+      <c r="E27">
+        <v>2.2203406158428329e-14</v>
+      </c>
+      <c r="F27">
+        <v>2.2203406158428329e-14</v>
+      </c>
+      <c r="G27">
+        <v>2.2203406158428329e-14</v>
+      </c>
+      <c r="H27">
+        <v>2.2203406158428329e-14</v>
+      </c>
+      <c r="I27">
+        <v>0.00097423339731859298</v>
+      </c>
+      <c r="J27">
+        <v>0.0018874590741497961</v>
+      </c>
+      <c r="K27">
+        <v>2.2203406158428329e-14</v>
+      </c>
+      <c r="L27">
+        <v>0.0046211346388578796</v>
+      </c>
+      <c r="M27">
+        <v>0.98990307747031603</v>
+      </c>
+      <c r="N27">
+        <v>0.00074121890431895054</v>
+      </c>
+      <c r="O27">
+        <v>1.4931795711895105e-09</v>
+      </c>
+      <c r="P27">
+        <v>12</v>
+      </c>
+      <c r="Q27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B28">
+        <v>0.049544409796634131</v>
+      </c>
+      <c r="C28">
+        <v>0.0064401769498438344</v>
+      </c>
+      <c r="D28">
+        <v>0.010070874076433015</v>
+      </c>
+      <c r="E28">
+        <v>0.05673413136990841</v>
+      </c>
+      <c r="F28">
+        <v>0.05673413136990841</v>
+      </c>
+      <c r="G28">
+        <v>0.0064401769498438101</v>
+      </c>
+      <c r="H28">
+        <v>0.05673413136990841</v>
+      </c>
+      <c r="I28">
+        <v>0.022496596771189301</v>
+      </c>
+      <c r="J28">
+        <v>0.0099503337220992541</v>
+      </c>
+      <c r="K28">
+        <v>0.05673413136990841</v>
+      </c>
+      <c r="L28">
+        <v>0.011709143715646672</v>
+      </c>
+      <c r="M28">
+        <v>0.55513064884431185</v>
+      </c>
+      <c r="N28">
+        <v>0.094348312909956059</v>
+      </c>
+      <c r="O28">
+        <v>0.0069328007844084421</v>
+      </c>
+      <c r="P28">
+        <v>12</v>
+      </c>
+      <c r="Q28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B29">
+        <v>0.0027472492055461055</v>
+      </c>
+      <c r="C29">
+        <v>2.2204686287150637e-14</v>
+      </c>
+      <c r="D29">
+        <v>0.00086344999453607564</v>
+      </c>
+      <c r="E29">
+        <v>2.2204686287150637e-14</v>
+      </c>
+      <c r="F29">
+        <v>2.2204686287150637e-14</v>
+      </c>
+      <c r="G29">
+        <v>2.2204686287150637e-14</v>
+      </c>
+      <c r="H29">
+        <v>2.2204686287150637e-14</v>
+      </c>
+      <c r="I29">
+        <v>0.0013309853667361716</v>
+      </c>
+      <c r="J29">
+        <v>0.0014543802335953825</v>
+      </c>
+      <c r="K29">
+        <v>2.2204686287150637e-14</v>
+      </c>
+      <c r="L29">
+        <v>0.0045542278669069899</v>
+      </c>
+      <c r="M29">
+        <v>0.98433330374678829</v>
+      </c>
+      <c r="N29">
+        <v>0.0047163012766820098</v>
+      </c>
+      <c r="O29">
+        <v>1.0230907580526873e-07</v>
+      </c>
+      <c r="P29">
+        <v>12</v>
+      </c>
+      <c r="Q29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B30">
+        <v>1.0109557955157994e-06</v>
+      </c>
+      <c r="C30">
+        <v>2.2198642851037206e-14</v>
+      </c>
+      <c r="D30">
+        <v>4.5209187522238087e-07</v>
+      </c>
+      <c r="E30">
+        <v>2.2198642851037206e-14</v>
+      </c>
+      <c r="F30">
+        <v>2.2198642851037206e-14</v>
+      </c>
+      <c r="G30">
+        <v>2.2198642851037206e-14</v>
+      </c>
+      <c r="H30">
+        <v>2.2198642851037206e-14</v>
+      </c>
+      <c r="I30">
+        <v>7.0690105495658869e-05</v>
+      </c>
+      <c r="J30">
+        <v>3.5192758612277756e-07</v>
+      </c>
+      <c r="K30">
+        <v>2.2198642851037206e-14</v>
+      </c>
+      <c r="L30">
+        <v>0.0041478039034294409</v>
+      </c>
+      <c r="M30">
+        <v>0.96772439640686714</v>
+      </c>
+      <c r="N30">
+        <v>0.02805529227687243</v>
+      </c>
+      <c r="O30">
+        <v>2.3319453845907003e-09</v>
+      </c>
+      <c r="P30">
+        <v>12</v>
+      </c>
+      <c r="Q30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31">
+        <v>0.0012070773008311358</v>
+      </c>
+      <c r="C31">
+        <v>2.2203233894485993e-14</v>
+      </c>
+      <c r="D31">
+        <v>0.00015666080060289879</v>
+      </c>
+      <c r="E31">
+        <v>2.2203233894485993e-14</v>
+      </c>
+      <c r="F31">
+        <v>2.2203233894485993e-14</v>
+      </c>
+      <c r="G31">
+        <v>2.2203233894485993e-14</v>
+      </c>
+      <c r="H31">
+        <v>2.2203233894485993e-14</v>
+      </c>
+      <c r="I31">
+        <v>0.00039776835386728097</v>
+      </c>
+      <c r="J31">
+        <v>0.0015501881853916823</v>
+      </c>
+      <c r="K31">
+        <v>2.2203233894485993e-14</v>
+      </c>
+      <c r="L31">
+        <v>0.0044086894735350267</v>
+      </c>
+      <c r="M31">
+        <v>0.99065253045523982</v>
+      </c>
+      <c r="N31">
+        <v>0.0016270832227245752</v>
+      </c>
+      <c r="O31">
+        <v>2.2076744763040902e-09</v>
+      </c>
+      <c r="P31">
+        <v>12</v>
+      </c>
+      <c r="Q31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B32">
+        <v>0.0025187850651183516</v>
+      </c>
+      <c r="C32">
+        <v>2.2204226907614119e-14</v>
+      </c>
+      <c r="D32">
+        <v>0.00097766614647897291</v>
+      </c>
+      <c r="E32">
+        <v>2.2204226907614119e-14</v>
+      </c>
+      <c r="F32">
+        <v>2.2204226907614119e-14</v>
+      </c>
+      <c r="G32">
+        <v>2.2204226907614119e-14</v>
+      </c>
+      <c r="H32">
+        <v>2.2204226907614119e-14</v>
+      </c>
+      <c r="I32">
+        <v>0.0023409670726477374</v>
+      </c>
+      <c r="J32">
+        <v>0.00065935112473284761</v>
+      </c>
+      <c r="K32">
+        <v>2.2204226907614119e-14</v>
+      </c>
+      <c r="L32">
+        <v>0.0046819344735506349</v>
+      </c>
+      <c r="M32">
+        <v>0.9865852907617112</v>
+      </c>
+      <c r="N32">
+        <v>0.0022359924652395041</v>
+      </c>
+      <c r="O32">
+        <v>1.2890387449002859e-08</v>
+      </c>
+      <c r="P32">
+        <v>12</v>
+      </c>
+      <c r="Q32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B33">
+        <v>0.0033043029177217595</v>
+      </c>
+      <c r="C33">
+        <v>2.2204680733347797e-14</v>
+      </c>
+      <c r="D33">
+        <v>0.00097438369939849008</v>
+      </c>
+      <c r="E33">
+        <v>2.2204680733347797e-14</v>
+      </c>
+      <c r="F33">
+        <v>2.2204680733347797e-14</v>
+      </c>
+      <c r="G33">
+        <v>2.2204680733347797e-14</v>
+      </c>
+      <c r="H33">
+        <v>2.2204680733347797e-14</v>
+      </c>
+      <c r="I33">
+        <v>0.0016116489260503215</v>
+      </c>
+      <c r="J33">
+        <v>0.00035763899346175342</v>
+      </c>
+      <c r="K33">
+        <v>2.2204680733347797e-14</v>
+      </c>
+      <c r="L33">
+        <v>0.003830728632670307</v>
+      </c>
+      <c r="M33">
+        <v>0.98258763716620245</v>
+      </c>
+      <c r="N33">
+        <v>0.0073324854503479869</v>
+      </c>
+      <c r="O33">
+        <v>1.1742140135923369e-06</v>
+      </c>
+      <c r="P33">
+        <v>12</v>
+      </c>
+      <c r="Q33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B34">
+        <v>0.00064321773616644862</v>
+      </c>
+      <c r="C34">
+        <v>2.2203135762030853e-14</v>
+      </c>
+      <c r="D34">
+        <v>0.00028328936294555967</v>
+      </c>
+      <c r="E34">
+        <v>2.2203135762030853e-14</v>
+      </c>
+      <c r="F34">
+        <v>2.2203135762030853e-14</v>
+      </c>
+      <c r="G34">
+        <v>2.2203135762030853e-14</v>
+      </c>
+      <c r="H34">
+        <v>2.2203135762030853e-14</v>
+      </c>
+      <c r="I34">
+        <v>0.0010159117757088049</v>
+      </c>
+      <c r="J34">
+        <v>0.00014844592643105042</v>
+      </c>
+      <c r="K34">
+        <v>2.2203135762030853e-14</v>
+      </c>
+      <c r="L34">
+        <v>0.0044065518933303254</v>
+      </c>
+      <c r="M34">
+        <v>0.99060666816444876</v>
+      </c>
+      <c r="N34">
+        <v>0.0028958359833017237</v>
+      </c>
+      <c r="O34">
+        <v>7.9157534010358634e-08</v>
+      </c>
+      <c r="P34">
+        <v>12</v>
+      </c>
+      <c r="Q34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B35">
+        <v>0.00029807963980273692</v>
+      </c>
+      <c r="C35">
+        <v>2.220199572614167e-14</v>
+      </c>
+      <c r="D35">
+        <v>5.4701850073385717e-05</v>
+      </c>
+      <c r="E35">
+        <v>2.220199572614167e-14</v>
+      </c>
+      <c r="F35">
+        <v>2.220199572614167e-14</v>
+      </c>
+      <c r="G35">
+        <v>2.220199572614167e-14</v>
+      </c>
+      <c r="H35">
+        <v>2.220199572614167e-14</v>
+      </c>
+      <c r="I35">
+        <v>0.00080814336077935527</v>
+      </c>
+      <c r="J35">
+        <v>3.4561600952195257e-05</v>
+      </c>
+      <c r="K35">
+        <v>2.220199572614167e-14</v>
+      </c>
+      <c r="L35">
+        <v>0.0048748277821204725</v>
+      </c>
+      <c r="M35">
+        <v>0.98855565526520062</v>
+      </c>
+      <c r="N35">
+        <v>0.0052602725596635758</v>
+      </c>
+      <c r="O35">
+        <v>0.00011375794127450128</v>
+      </c>
+      <c r="P35">
+        <v>12</v>
+      </c>
+      <c r="Q35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B36">
+        <v>0.00053707161207937478</v>
+      </c>
+      <c r="C36">
+        <v>2.2202062652407558e-14</v>
+      </c>
+      <c r="D36">
+        <v>0.00090143846849618169</v>
+      </c>
+      <c r="E36">
+        <v>2.2202062652407558e-14</v>
+      </c>
+      <c r="F36">
+        <v>2.2202062652407558e-14</v>
+      </c>
+      <c r="G36">
+        <v>2.2202062652407558e-14</v>
+      </c>
+      <c r="H36">
+        <v>2.2202062652407558e-14</v>
+      </c>
+      <c r="I36">
+        <v>0.00087182303264719623</v>
+      </c>
+      <c r="J36">
+        <v>0.00056572181389705125</v>
+      </c>
+      <c r="K36">
+        <v>2.2202062652407558e-14</v>
+      </c>
+      <c r="L36">
+        <v>0.0039647171887491634</v>
+      </c>
+      <c r="M36">
+        <v>0.97331138056925115</v>
+      </c>
+      <c r="N36">
+        <v>0.019833976162161551</v>
+      </c>
+      <c r="O36">
+        <v>1.3871152585021956e-05</v>
+      </c>
+      <c r="P36">
+        <v>12</v>
+      </c>
+      <c r="Q36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B37">
+        <v>0.00010324020459870348</v>
+      </c>
+      <c r="C37">
+        <v>2.219834991614672e-14</v>
+      </c>
+      <c r="D37">
+        <v>3.9662927224366744e-06</v>
+      </c>
+      <c r="E37">
+        <v>2.219834991614672e-14</v>
+      </c>
+      <c r="F37">
+        <v>2.219834991614672e-14</v>
+      </c>
+      <c r="G37">
+        <v>2.219834991614672e-14</v>
+      </c>
+      <c r="H37">
+        <v>2.219834991614672e-14</v>
+      </c>
+      <c r="I37">
+        <v>3.0918278559438392e-05</v>
+      </c>
+      <c r="J37">
+        <v>1.0027061741502179e-05</v>
+      </c>
+      <c r="K37">
+        <v>2.219834991614672e-14</v>
+      </c>
+      <c r="L37">
+        <v>0.0021096443398653966</v>
+      </c>
+      <c r="M37">
+        <v>0.97601497988071284</v>
+      </c>
+      <c r="N37">
+        <v>0.021720224067261817</v>
+      </c>
+      <c r="O37">
+        <v>6.9998744047350446e-06</v>
+      </c>
+      <c r="P37">
+        <v>12</v>
+      </c>
+      <c r="Q37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B38">
+        <v>0.00016359239264052697</v>
+      </c>
+      <c r="C38">
+        <v>2.2197457988120657e-14</v>
+      </c>
+      <c r="D38">
+        <v>2.9421142605125515e-05</v>
+      </c>
+      <c r="E38">
+        <v>2.2197457988120657e-14</v>
+      </c>
+      <c r="F38">
+        <v>2.2197457988120657e-14</v>
+      </c>
+      <c r="G38">
+        <v>2.2197457988120657e-14</v>
+      </c>
+      <c r="H38">
+        <v>2.2197457988120657e-14</v>
+      </c>
+      <c r="I38">
+        <v>0.00036109710708243949</v>
+      </c>
+      <c r="J38">
+        <v>1.6800737908631194e-05</v>
+      </c>
+      <c r="K38">
+        <v>2.2197457988120657e-14</v>
+      </c>
+      <c r="L38">
+        <v>0.0024817610916960699</v>
+      </c>
+      <c r="M38">
+        <v>0.96883386837824836</v>
+      </c>
+      <c r="N38">
+        <v>0.028065269559311334</v>
+      </c>
+      <c r="O38">
+        <v>4.8189590374368853e-05</v>
+      </c>
+      <c r="P38">
+        <v>12</v>
+      </c>
+      <c r="Q38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39">
+        <v>0.049800333779655953</v>
+      </c>
+      <c r="C39">
+        <v>2.4543570059421648e-14</v>
+      </c>
+      <c r="D39">
+        <v>0.0010671148154801119</v>
+      </c>
+      <c r="E39">
+        <v>2.4354695268584632e-14</v>
+      </c>
+      <c r="F39">
+        <v>2.4354695268584632e-14</v>
+      </c>
+      <c r="G39">
+        <v>2.4543570059421642e-14</v>
+      </c>
+      <c r="H39">
+        <v>2.4354695268584632e-14</v>
+      </c>
+      <c r="I39">
+        <v>0.0033977589704420916</v>
+      </c>
+      <c r="J39">
+        <v>0.00080577233652136271</v>
+      </c>
+      <c r="K39">
+        <v>2.4354695268584632e-14</v>
+      </c>
+      <c r="L39">
+        <v>0.004870779641164398</v>
+      </c>
+      <c r="M39">
+        <v>0.01643184314305287</v>
+      </c>
+      <c r="N39">
+        <v>0.92362639429130378</v>
+      </c>
+      <c r="O39">
+        <v>3.0222329348713728e-09</v>
+      </c>
+      <c r="P39">
+        <v>13</v>
+      </c>
+      <c r="Q39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B40">
+        <v>0.051180364303896698</v>
+      </c>
+      <c r="C40">
+        <v>2.2205046765356608e-14</v>
+      </c>
+      <c r="D40">
+        <v>0.0025487407338628631</v>
+      </c>
+      <c r="E40">
+        <v>2.2205046765356608e-14</v>
+      </c>
+      <c r="F40">
+        <v>2.2205046765356608e-14</v>
+      </c>
+      <c r="G40">
+        <v>2.2205046765356608e-14</v>
+      </c>
+      <c r="H40">
+        <v>2.2205046765356608e-14</v>
+      </c>
+      <c r="I40">
+        <v>0.001060253478538333</v>
+      </c>
+      <c r="J40">
+        <v>0.0017047490188054723</v>
+      </c>
+      <c r="K40">
+        <v>2.2205046765356608e-14</v>
+      </c>
+      <c r="L40">
+        <v>0.005182212759711838</v>
+      </c>
+      <c r="M40">
+        <v>0.021462206149474437</v>
+      </c>
+      <c r="N40">
+        <v>0.91686147232570814</v>
+      </c>
+      <c r="O40">
+        <v>1.2298689422266317e-09</v>
+      </c>
+      <c r="P40">
+        <v>13</v>
+      </c>
+      <c r="Q40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B41">
+        <v>0.02731838423846504</v>
+      </c>
+      <c r="C41">
+        <v>0.0080342795501695281</v>
+      </c>
+      <c r="D41">
+        <v>0.0083603870671004523</v>
+      </c>
+      <c r="E41">
+        <v>0.088712657397303246</v>
+      </c>
+      <c r="F41">
+        <v>0.088712657397303246</v>
+      </c>
+      <c r="G41">
+        <v>0.0080342795501695229</v>
+      </c>
+      <c r="H41">
+        <v>0.088712657397303246</v>
+      </c>
+      <c r="I41">
+        <v>0.017269345416190914</v>
+      </c>
+      <c r="J41">
+        <v>0.018602022059465654</v>
+      </c>
+      <c r="K41">
+        <v>0.088712657397303246</v>
+      </c>
+      <c r="L41">
+        <v>0.012949173110432395</v>
+      </c>
+      <c r="M41">
+        <v>0.0091888727567338273</v>
+      </c>
+      <c r="N41">
+        <v>0.52732047095532675</v>
+      </c>
+      <c r="O41">
+        <v>0.0080721557067328416</v>
+      </c>
+      <c r="P41">
+        <v>13</v>
+      </c>
+      <c r="Q41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B42">
+        <v>0.018567975836084789</v>
+      </c>
+      <c r="C42">
+        <v>0.0087567457538791464</v>
+      </c>
+      <c r="D42">
+        <v>0.0092909666602278111</v>
+      </c>
+      <c r="E42">
+        <v>0.18223084959459024</v>
+      </c>
+      <c r="F42">
+        <v>0.18223084959459024</v>
+      </c>
+      <c r="G42">
+        <v>0.0087567457538791464</v>
+      </c>
+      <c r="H42">
+        <v>0.18223084959459024</v>
+      </c>
+      <c r="I42">
+        <v>0.061296678901342883</v>
+      </c>
+      <c r="J42">
+        <v>0.099318453472061294</v>
+      </c>
+      <c r="K42">
+        <v>0.18223084959459024</v>
+      </c>
+      <c r="L42">
+        <v>0.013169387165802099</v>
+      </c>
+      <c r="M42">
+        <v>0.0087638814734389177</v>
+      </c>
+      <c r="N42">
+        <v>0.034397837797362378</v>
+      </c>
+      <c r="O42">
+        <v>0.0087579288075605461</v>
+      </c>
+      <c r="P42">
+        <v>4</v>
+      </c>
+      <c r="Q42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B43">
+        <v>0.00095719623525363233</v>
+      </c>
+      <c r="C43">
+        <v>2.2199319586140536e-14</v>
+      </c>
+      <c r="D43">
+        <v>0.0050226573891078916</v>
+      </c>
+      <c r="E43">
+        <v>2.2199319586140536e-14</v>
+      </c>
+      <c r="F43">
+        <v>2.2199319586140536e-14</v>
+      </c>
+      <c r="G43">
+        <v>2.2199319586140536e-14</v>
+      </c>
+      <c r="H43">
+        <v>2.2199319586140536e-14</v>
+      </c>
+      <c r="I43">
+        <v>9.628679569385303e-05</v>
+      </c>
+      <c r="J43">
+        <v>0.0001487428890931886</v>
+      </c>
+      <c r="K43">
+        <v>2.2199319586140536e-14</v>
+      </c>
+      <c r="L43">
+        <v>0.0020412709961055609</v>
+      </c>
+      <c r="M43">
+        <v>0.0022633410359538912</v>
+      </c>
+      <c r="N43">
+        <v>0.05284820415728668</v>
+      </c>
+      <c r="O43">
+        <v>0.93662230050137207</v>
+      </c>
+      <c r="P43">
+        <v>14</v>
+      </c>
+      <c r="Q43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B44">
+        <v>0.0052325976967300776</v>
+      </c>
+      <c r="C44">
+        <v>2.2204457728681495e-14</v>
+      </c>
+      <c r="D44">
+        <v>0.00017703849449483302</v>
+      </c>
+      <c r="E44">
+        <v>2.2204457728681495e-14</v>
+      </c>
+      <c r="F44">
+        <v>2.2204457728681495e-14</v>
+      </c>
+      <c r="G44">
+        <v>2.2204457728681495e-14</v>
+      </c>
+      <c r="H44">
+        <v>2.2204457728681495e-14</v>
+      </c>
+      <c r="I44">
+        <v>0.0003382718979207761</v>
+      </c>
+      <c r="J44">
+        <v>0.00040826211407656737</v>
+      </c>
+      <c r="K44">
+        <v>2.2204457728681495e-14</v>
+      </c>
+      <c r="L44">
+        <v>0.0026907035464739902</v>
+      </c>
+      <c r="M44">
+        <v>0.004065052965719726</v>
+      </c>
+      <c r="N44">
+        <v>0.0011980788846340143</v>
+      </c>
+      <c r="O44">
+        <v>0.98588999439981684</v>
+      </c>
+      <c r="P44">
+        <v>14</v>
+      </c>
+      <c r="Q44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B45">
+        <v>0.0054249657848368703</v>
+      </c>
+      <c r="C45">
+        <v>2.2216717984301431e-14</v>
+      </c>
+      <c r="D45">
+        <v>0.0033927062705499354</v>
+      </c>
+      <c r="E45">
+        <v>2.2216717984301431e-14</v>
+      </c>
+      <c r="F45">
+        <v>2.2216717984301431e-14</v>
+      </c>
+      <c r="G45">
+        <v>2.2216717984301431e-14</v>
+      </c>
+      <c r="H45">
+        <v>2.2216717984301431e-14</v>
+      </c>
+      <c r="I45">
+        <v>0.0039064021992964151</v>
+      </c>
+      <c r="J45">
+        <v>0.00044006780531990688</v>
+      </c>
+      <c r="K45">
+        <v>2.2216717984301431e-14</v>
+      </c>
+      <c r="L45">
+        <v>0.0028843346943842455</v>
+      </c>
+      <c r="M45">
+        <v>0.019120639878374517</v>
+      </c>
+      <c r="N45">
+        <v>0.011839803055407026</v>
+      </c>
+      <c r="O45">
+        <v>0.95299108031169777</v>
+      </c>
+      <c r="P45">
+        <v>14</v>
+      </c>
+      <c r="Q45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B46">
+        <v>0.0083055009080636698</v>
+      </c>
+      <c r="C46">
+        <v>2.2203438629134276e-14</v>
+      </c>
+      <c r="D46">
+        <v>1.6730282955152301e-05</v>
+      </c>
+      <c r="E46">
+        <v>2.2203438629134276e-14</v>
+      </c>
+      <c r="F46">
+        <v>2.2203438629134276e-14</v>
+      </c>
+      <c r="G46">
+        <v>2.2203438629134276e-14</v>
+      </c>
+      <c r="H46">
+        <v>2.2203438629134276e-14</v>
+      </c>
+      <c r="I46">
+        <v>0.00018941703197115477</v>
+      </c>
+      <c r="J46">
+        <v>0.0013918164339577243</v>
+      </c>
+      <c r="K46">
+        <v>2.2203438629134276e-14</v>
+      </c>
+      <c r="L46">
+        <v>0.0028057118622106256</v>
+      </c>
+      <c r="M46">
+        <v>0.00051206675616603293</v>
+      </c>
+      <c r="N46">
+        <v>0.0013069941859450626</v>
+      </c>
+      <c r="O46">
+        <v>0.98547176253859736</v>
+      </c>
+      <c r="P46">
+        <v>14</v>
+      </c>
+      <c r="Q46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B47">
+        <v>0.0013638179481349304</v>
+      </c>
+      <c r="C47">
+        <v>2.2204834786730176e-14</v>
+      </c>
+      <c r="D47">
+        <v>0.0030933016831431949</v>
+      </c>
+      <c r="E47">
+        <v>2.2204834786730176e-14</v>
+      </c>
+      <c r="F47">
+        <v>2.2204834786730176e-14</v>
+      </c>
+      <c r="G47">
+        <v>2.2204834786730176e-14</v>
+      </c>
+      <c r="H47">
+        <v>2.2204834786730176e-14</v>
+      </c>
+      <c r="I47">
+        <v>0.00011501634156920529</v>
+      </c>
+      <c r="J47">
+        <v>0.00013085497181488783</v>
+      </c>
+      <c r="K47">
+        <v>2.2204834786730176e-14</v>
+      </c>
+      <c r="L47">
+        <v>0.002734773782495749</v>
+      </c>
+      <c r="M47">
+        <v>0.0046861777297725208</v>
+      </c>
+      <c r="N47">
+        <v>0.0021534227261993015</v>
+      </c>
+      <c r="O47">
+        <v>0.98572263481673694</v>
+      </c>
+      <c r="P47">
+        <v>14</v>
+      </c>
+      <c r="Q47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B48">
+        <v>0.0068424849410761409</v>
+      </c>
+      <c r="C48">
+        <v>2.2206132385711908e-14</v>
+      </c>
+      <c r="D48">
+        <v>0.00011178149760370452</v>
+      </c>
+      <c r="E48">
+        <v>2.2206132385711908e-14</v>
+      </c>
+      <c r="F48">
+        <v>2.2206132385711908e-14</v>
+      </c>
+      <c r="G48">
+        <v>2.2206132385711908e-14</v>
+      </c>
+      <c r="H48">
+        <v>2.2206132385711908e-14</v>
+      </c>
+      <c r="I48">
+        <v>0.00076125872192648887</v>
+      </c>
+      <c r="J48">
+        <v>0.0013933647429558329</v>
+      </c>
+      <c r="K48">
+        <v>2.2206132385711908e-14</v>
+      </c>
+      <c r="L48">
+        <v>0.0028112066141622385</v>
+      </c>
+      <c r="M48">
+        <v>0.0017070716914214235</v>
+      </c>
+      <c r="N48">
+        <v>0.0095951277377123497</v>
+      </c>
+      <c r="O48">
+        <v>0.97677770405300868</v>
+      </c>
+      <c r="P48">
+        <v>14</v>
+      </c>
+      <c r="Q48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B49">
+        <v>0.0097388438953836792</v>
+      </c>
+      <c r="C49">
+        <v>2.2203457138192172e-14</v>
+      </c>
+      <c r="D49">
+        <v>1.6508274064288191e-06</v>
+      </c>
+      <c r="E49">
+        <v>2.2203457138192172e-14</v>
+      </c>
+      <c r="F49">
+        <v>2.2203457138192172e-14</v>
+      </c>
+      <c r="G49">
+        <v>2.2203457138192172e-14</v>
+      </c>
+      <c r="H49">
+        <v>2.2203457138192172e-14</v>
+      </c>
+      <c r="I49">
+        <v>0.00056365806281107359</v>
+      </c>
+      <c r="J49">
+        <v>0.0027662380184644408</v>
+      </c>
+      <c r="K49">
+        <v>2.2203457138192172e-14</v>
+      </c>
+      <c r="L49">
+        <v>0.0027628547440849758</v>
+      </c>
+      <c r="M49">
+        <v>0.00011452533719507399</v>
+      </c>
+      <c r="N49">
+        <v>0.00010313535304413046</v>
+      </c>
+      <c r="O49">
+        <v>0.98394909376147688</v>
+      </c>
+      <c r="P49">
+        <v>14</v>
+      </c>
+      <c r="Q49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B50">
+        <v>0.0080830470608688493</v>
+      </c>
+      <c r="C50">
+        <v>2.2205076586565671e-14</v>
+      </c>
+      <c r="D50">
+        <v>1.8091463059815695e-05</v>
+      </c>
+      <c r="E50">
+        <v>2.2205076586565671e-14</v>
+      </c>
+      <c r="F50">
+        <v>2.2205076586565671e-14</v>
+      </c>
+      <c r="G50">
+        <v>2.2205076586565671e-14</v>
+      </c>
+      <c r="H50">
+        <v>2.2205076586565671e-14</v>
+      </c>
+      <c r="I50">
+        <v>0.0014796913523563273</v>
+      </c>
+      <c r="J50">
+        <v>0.0027073153275557287</v>
+      </c>
+      <c r="K50">
+        <v>2.2205076586565671e-14</v>
+      </c>
+      <c r="L50">
+        <v>0.0027182598297068013</v>
+      </c>
+      <c r="M50">
+        <v>0.00036709883143732952</v>
+      </c>
+      <c r="N50">
+        <v>0.0028653480025690541</v>
+      </c>
+      <c r="O50">
+        <v>0.98176114813231286</v>
+      </c>
+      <c r="P50">
+        <v>14</v>
+      </c>
+      <c r="Q50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B51">
+        <v>0.0038202941012038727</v>
+      </c>
+      <c r="C51">
+        <v>2.2200139960672734e-14</v>
+      </c>
+      <c r="D51">
+        <v>1.1129280842667126e-07</v>
+      </c>
+      <c r="E51">
+        <v>2.2200139960672734e-14</v>
+      </c>
+      <c r="F51">
+        <v>2.2200139960672734e-14</v>
+      </c>
+      <c r="G51">
+        <v>2.2200139960672734e-14</v>
+      </c>
+      <c r="H51">
+        <v>2.2200139960672734e-14</v>
+      </c>
+      <c r="I51">
+        <v>0.0017879705047912763</v>
+      </c>
+      <c r="J51">
+        <v>0.034404362562674894</v>
+      </c>
+      <c r="K51">
+        <v>2.2200139960672734e-14</v>
+      </c>
+      <c r="L51">
+        <v>0.0023992547408525893</v>
+      </c>
+      <c r="M51">
+        <v>6.3522629241718114e-07</v>
+      </c>
+      <c r="N51">
+        <v>2.9411081738111038e-05</v>
+      </c>
+      <c r="O51">
+        <v>0.95755796048950526</v>
+      </c>
+      <c r="P51">
+        <v>14</v>
+      </c>
+      <c r="Q51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B52">
+        <v>0.011141004877564257</v>
+      </c>
+      <c r="C52">
+        <v>2.2206760650860605e-14</v>
+      </c>
+      <c r="D52">
+        <v>3.5563871322832433e-05</v>
+      </c>
+      <c r="E52">
+        <v>2.2206760650860605e-14</v>
+      </c>
+      <c r="F52">
+        <v>2.2206760650860605e-14</v>
+      </c>
+      <c r="G52">
+        <v>2.2206760650860605e-14</v>
+      </c>
+      <c r="H52">
+        <v>2.2206760650860605e-14</v>
+      </c>
+      <c r="I52">
+        <v>0.0014796383907178868</v>
+      </c>
+      <c r="J52">
+        <v>0.006569265192431002</v>
+      </c>
+      <c r="K52">
+        <v>2.2206760650860605e-14</v>
+      </c>
+      <c r="L52">
+        <v>0.0029040043044095964</v>
+      </c>
+      <c r="M52">
+        <v>0.00093825510657851265</v>
+      </c>
+      <c r="N52">
+        <v>0.0019935943513793007</v>
+      </c>
+      <c r="O52">
+        <v>0.97493867390546329</v>
+      </c>
+      <c r="P52">
+        <v>14</v>
+      </c>
+      <c r="Q52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B53">
+        <v>0.0085307325261924586</v>
+      </c>
+      <c r="C53">
+        <v>2.2208297020441347e-14</v>
+      </c>
+      <c r="D53">
+        <v>3.8884909406162085e-05</v>
+      </c>
+      <c r="E53">
+        <v>2.2208297020441347e-14</v>
+      </c>
+      <c r="F53">
+        <v>2.2208297020441347e-14</v>
+      </c>
+      <c r="G53">
+        <v>2.2208297020441347e-14</v>
+      </c>
+      <c r="H53">
+        <v>2.2208297020441347e-14</v>
+      </c>
+      <c r="I53">
+        <v>0.0028742828439986949</v>
+      </c>
+      <c r="J53">
+        <v>0.0046088435789077738</v>
+      </c>
+      <c r="K53">
+        <v>2.2208297020441347e-14</v>
+      </c>
+      <c r="L53">
+        <v>0.0031891665109227431</v>
+      </c>
+      <c r="M53">
+        <v>0.001273679044250039</v>
+      </c>
+      <c r="N53">
+        <v>0.0070553880961427588</v>
+      </c>
+      <c r="O53">
+        <v>0.97242902249004604</v>
+      </c>
+      <c r="P53">
+        <v>14</v>
+      </c>
+      <c r="Q53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B54">
+        <v>0.0067435223339547259</v>
+      </c>
+      <c r="C54">
+        <v>2.220462998648193e-14</v>
+      </c>
+      <c r="D54">
+        <v>5.5268262804368435e-07</v>
+      </c>
+      <c r="E54">
+        <v>2.220462998648193e-14</v>
+      </c>
+      <c r="F54">
+        <v>2.220462998648193e-14</v>
+      </c>
+      <c r="G54">
+        <v>2.220462998648193e-14</v>
+      </c>
+      <c r="H54">
+        <v>2.220462998648193e-14</v>
+      </c>
+      <c r="I54">
+        <v>0.0012378210413610852</v>
+      </c>
+      <c r="J54">
+        <v>0.0041638410231488576</v>
+      </c>
+      <c r="K54">
+        <v>2.220462998648193e-14</v>
+      </c>
+      <c r="L54">
+        <v>0.0031018886922537336</v>
+      </c>
+      <c r="M54">
+        <v>0.00024905937943436982</v>
+      </c>
+      <c r="N54">
+        <v>2.3607000981607569e-05</v>
+      </c>
+      <c r="O54">
+        <v>0.98447970784610439</v>
+      </c>
+      <c r="P54">
+        <v>14</v>
+      </c>
+      <c r="Q54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B55">
+        <v>0.0072421988741621967</v>
+      </c>
+      <c r="C55">
+        <v>2.2208341382134181e-14</v>
+      </c>
+      <c r="D55">
+        <v>3.957709236548099e-05</v>
+      </c>
+      <c r="E55">
+        <v>2.2208341382134181e-14</v>
+      </c>
+      <c r="F55">
+        <v>2.2208341382134181e-14</v>
+      </c>
+      <c r="G55">
+        <v>2.2208341382134181e-14</v>
+      </c>
+      <c r="H55">
+        <v>2.2208341382134181e-14</v>
+      </c>
+      <c r="I55">
+        <v>0.004477034901198931</v>
+      </c>
+      <c r="J55">
+        <v>0.0055008605711085144</v>
+      </c>
+      <c r="K55">
+        <v>2.2208341382134181e-14</v>
+      </c>
+      <c r="L55">
+        <v>0.0030491278725992758</v>
+      </c>
+      <c r="M55">
+        <v>0.0039629110108776872</v>
+      </c>
+      <c r="N55">
+        <v>0.0020613940117082175</v>
+      </c>
+      <c r="O55">
+        <v>0.97366689566584641</v>
+      </c>
+      <c r="P55">
+        <v>14</v>
+      </c>
+      <c r="Q55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B56">
+        <v>0.01582658770253445</v>
+      </c>
+      <c r="C56">
+        <v>2.2209901977763276e-14</v>
+      </c>
+      <c r="D56">
+        <v>4.4046362536308264e-06</v>
+      </c>
+      <c r="E56">
+        <v>2.2209901977763276e-14</v>
+      </c>
+      <c r="F56">
+        <v>2.2209901977763276e-14</v>
+      </c>
+      <c r="G56">
+        <v>2.2209901977763276e-14</v>
+      </c>
+      <c r="H56">
+        <v>2.2209901977763276e-14</v>
+      </c>
+      <c r="I56">
+        <v>0.0017072016457535812</v>
+      </c>
+      <c r="J56">
+        <v>0.01830362475999452</v>
+      </c>
+      <c r="K56">
+        <v>2.2209901977763276e-14</v>
+      </c>
+      <c r="L56">
+        <v>0.0027112508833464642</v>
+      </c>
+      <c r="M56">
+        <v>1.8877469448944479e-05</v>
+      </c>
+      <c r="N56">
+        <v>0.00045631040473380038</v>
+      </c>
+      <c r="O56">
+        <v>0.96097174249780137</v>
+      </c>
+      <c r="P56">
+        <v>14</v>
+      </c>
+      <c r="Q56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B57">
+        <v>0.0020459875769835733</v>
+      </c>
+      <c r="C57">
+        <v>2.2190495296829745e-14</v>
+      </c>
+      <c r="D57">
+        <v>1.1711027564370143e-08</v>
+      </c>
+      <c r="E57">
+        <v>2.2190495296829745e-14</v>
+      </c>
+      <c r="F57">
+        <v>2.2190495296829745e-14</v>
+      </c>
+      <c r="G57">
+        <v>2.2190495296829745e-14</v>
+      </c>
+      <c r="H57">
+        <v>2.2190495296829745e-14</v>
+      </c>
+      <c r="I57">
+        <v>0.00062835325297367001</v>
+      </c>
+      <c r="J57">
+        <v>0.068075698454740971</v>
+      </c>
+      <c r="K57">
+        <v>2.2190495296829745e-14</v>
+      </c>
+      <c r="L57">
+        <v>0.0020063135491159884</v>
+      </c>
+      <c r="M57">
+        <v>8.6360141464897801e-08</v>
+      </c>
+      <c r="N57">
+        <v>9.1690291525711002e-07</v>
+      </c>
+      <c r="O57">
+        <v>0.92724263219196845</v>
+      </c>
+      <c r="P57">
+        <v>14</v>
+      </c>
+      <c r="Q57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B58">
+        <v>0.0016435616517732495</v>
+      </c>
+      <c r="C58">
+        <v>2.2188381633781715e-14</v>
+      </c>
+      <c r="D58">
+        <v>5.6249160365202121e-08</v>
+      </c>
+      <c r="E58">
+        <v>2.2188381633781715e-14</v>
+      </c>
+      <c r="F58">
+        <v>2.2188381633781715e-14</v>
+      </c>
+      <c r="G58">
+        <v>2.2188381633781715e-14</v>
+      </c>
+      <c r="H58">
+        <v>2.2188381633781715e-14</v>
+      </c>
+      <c r="I58">
+        <v>0.00074631803603064021</v>
+      </c>
+      <c r="J58">
+        <v>0.093453449888983992</v>
+      </c>
+      <c r="K58">
+        <v>2.2188381633781715e-14</v>
+      </c>
+      <c r="L58">
+        <v>0.002129291913345386</v>
+      </c>
+      <c r="M58">
+        <v>2.9380326479095527e-07</v>
+      </c>
+      <c r="N58">
+        <v>9.4005846882478789e-06</v>
+      </c>
+      <c r="O58">
+        <v>0.90201762787262008</v>
+      </c>
+      <c r="P58">
+        <v>14</v>
+      </c>
+      <c r="Q58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B59">
+        <v>0.00097447486337445322</v>
+      </c>
+      <c r="C59">
+        <v>2.2198166595041275e-14</v>
+      </c>
+      <c r="D59">
+        <v>1.5642207920487503e-07</v>
+      </c>
+      <c r="E59">
+        <v>2.2198166595041275e-14</v>
+      </c>
+      <c r="F59">
+        <v>2.2198166595041275e-14</v>
+      </c>
+      <c r="G59">
+        <v>2.2198166595041275e-14</v>
+      </c>
+      <c r="H59">
+        <v>2.2198166595041275e-14</v>
+      </c>
+      <c r="I59">
+        <v>0.0057734576525444101</v>
+      </c>
+      <c r="J59">
+        <v>0.058628649897281254</v>
+      </c>
+      <c r="K59">
+        <v>2.2198166595041275e-14</v>
+      </c>
+      <c r="L59">
+        <v>0.0030589770831586857</v>
+      </c>
+      <c r="M59">
+        <v>5.7517963237744575e-06</v>
+      </c>
+      <c r="N59">
+        <v>2.4218162856673999e-05</v>
+      </c>
+      <c r="O59">
+        <v>0.9315343141222483</v>
+      </c>
+      <c r="P59">
+        <v>14</v>
+      </c>
+      <c r="Q59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B60">
+        <v>0.0014001079232941361</v>
+      </c>
+      <c r="C60">
+        <v>2.2185521615447004e-14</v>
+      </c>
+      <c r="D60">
+        <v>2.3798468506905154e-11</v>
+      </c>
+      <c r="E60">
+        <v>2.2185521615447004e-14</v>
+      </c>
+      <c r="F60">
+        <v>2.2185521615447004e-14</v>
+      </c>
+      <c r="G60">
+        <v>2.2185521615447004e-14</v>
+      </c>
+      <c r="H60">
+        <v>2.2185521615447004e-14</v>
+      </c>
+      <c r="I60">
+        <v>0.00019906858384554735</v>
+      </c>
+      <c r="J60">
+        <v>0.18485759679762731</v>
+      </c>
+      <c r="K60">
+        <v>2.2185521615447004e-14</v>
+      </c>
+      <c r="L60">
+        <v>0.0017140771906422319</v>
+      </c>
+      <c r="M60">
+        <v>8.9223127736648979e-12</v>
+      </c>
+      <c r="N60">
+        <v>1.95282981315712e-08</v>
+      </c>
+      <c r="O60">
+        <v>0.81182912994343881</v>
+      </c>
+      <c r="P60">
+        <v>14</v>
+      </c>
+      <c r="Q60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B61">
+        <v>0.00065417577873500183</v>
+      </c>
+      <c r="C61">
+        <v>2.2192811129250953e-14</v>
+      </c>
+      <c r="D61">
+        <v>7.6034202820843135e-08</v>
+      </c>
+      <c r="E61">
+        <v>2.2192811129250953e-14</v>
+      </c>
+      <c r="F61">
+        <v>2.2192811129250953e-14</v>
+      </c>
+      <c r="G61">
+        <v>2.2192811129250953e-14</v>
+      </c>
+      <c r="H61">
+        <v>2.2192811129250953e-14</v>
+      </c>
+      <c r="I61">
+        <v>0.0011034915990239022</v>
+      </c>
+      <c r="J61">
+        <v>0.05306430839050201</v>
+      </c>
+      <c r="K61">
+        <v>2.2192811129250953e-14</v>
+      </c>
+      <c r="L61">
+        <v>0.0023822019181754593</v>
+      </c>
+      <c r="M61">
+        <v>1.1539378360957039e-07</v>
+      </c>
+      <c r="N61">
+        <v>2.9936278871445785e-05</v>
+      </c>
+      <c r="O61">
+        <v>0.94276569460657256</v>
+      </c>
+      <c r="P61">
+        <v>14</v>
+      </c>
+      <c r="Q61">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>